--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.07421510367285</v>
+        <v>43.99002066666667</v>
       </c>
       <c r="H2">
-        <v>5.07421510367285</v>
+        <v>131.970062</v>
       </c>
       <c r="I2">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837379</v>
       </c>
       <c r="J2">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837378</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.324659123828771</v>
+        <v>1.917360666666666</v>
       </c>
       <c r="N2">
-        <v>0.324659123828771</v>
+        <v>5.752082</v>
       </c>
       <c r="O2">
-        <v>0.5125168488946402</v>
+        <v>0.7195063496280685</v>
       </c>
       <c r="P2">
-        <v>0.5125168488946402</v>
+        <v>0.7195063496280685</v>
       </c>
       <c r="Q2">
-        <v>1.647390229677144</v>
+        <v>84.34473535212045</v>
       </c>
       <c r="R2">
-        <v>1.647390229677144</v>
+        <v>759.1026181690841</v>
       </c>
       <c r="S2">
-        <v>0.05755270466661429</v>
+        <v>0.3413848717321538</v>
       </c>
       <c r="T2">
-        <v>0.05755270466661429</v>
+        <v>0.3413848717321538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.07421510367285</v>
+        <v>43.99002066666667</v>
       </c>
       <c r="H3">
-        <v>5.07421510367285</v>
+        <v>131.970062</v>
       </c>
       <c r="I3">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837379</v>
       </c>
       <c r="J3">
-        <v>0.1122942685508581</v>
+        <v>0.4744709645837378</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.308801267822689</v>
+        <v>0.3326733333333333</v>
       </c>
       <c r="N3">
-        <v>0.308801267822689</v>
+        <v>0.99802</v>
       </c>
       <c r="O3">
-        <v>0.4874831511053597</v>
+        <v>0.1248385761982887</v>
       </c>
       <c r="P3">
-        <v>0.4874831511053597</v>
+        <v>0.1248385761982887</v>
       </c>
       <c r="Q3">
-        <v>1.566924057219213</v>
+        <v>14.63430680858222</v>
       </c>
       <c r="R3">
-        <v>1.566924057219213</v>
+        <v>131.70876127724</v>
       </c>
       <c r="S3">
-        <v>0.0547415638842438</v>
+        <v>0.05923227966606251</v>
       </c>
       <c r="T3">
-        <v>0.0547415638842438</v>
+        <v>0.05923227966606251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>40.1125532786755</v>
+        <v>43.99002066666667</v>
       </c>
       <c r="H4">
-        <v>40.1125532786755</v>
+        <v>131.970062</v>
       </c>
       <c r="I4">
-        <v>0.8877057314491419</v>
+        <v>0.4744709645837379</v>
       </c>
       <c r="J4">
-        <v>0.8877057314491419</v>
+        <v>0.4744709645837378</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.324659123828771</v>
+        <v>0.09660600000000001</v>
       </c>
       <c r="N4">
-        <v>0.324659123828771</v>
+        <v>0.289818</v>
       </c>
       <c r="O4">
-        <v>0.5125168488946402</v>
+        <v>0.0362522459235643</v>
       </c>
       <c r="P4">
-        <v>0.5125168488946402</v>
+        <v>0.0362522459235643</v>
       </c>
       <c r="Q4">
-        <v>13.02290640198968</v>
+        <v>4.249699936524001</v>
       </c>
       <c r="R4">
-        <v>13.02290640198968</v>
+        <v>38.247299428716</v>
       </c>
       <c r="S4">
-        <v>0.4549641442280259</v>
+        <v>0.01720063809168043</v>
       </c>
       <c r="T4">
-        <v>0.4549641442280259</v>
+        <v>0.01720063809168043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>43.99002066666667</v>
+      </c>
+      <c r="H5">
+        <v>131.970062</v>
+      </c>
+      <c r="I5">
+        <v>0.4744709645837379</v>
+      </c>
+      <c r="J5">
+        <v>0.4744709645837378</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.318188</v>
+      </c>
+      <c r="N5">
+        <v>0.954564</v>
+      </c>
+      <c r="O5">
+        <v>0.1194028282500784</v>
+      </c>
+      <c r="P5">
+        <v>0.1194028282500784</v>
+      </c>
+      <c r="Q5">
+        <v>13.99709669588533</v>
+      </c>
+      <c r="R5">
+        <v>125.973870262968</v>
+      </c>
+      <c r="S5">
+        <v>0.05665317509384109</v>
+      </c>
+      <c r="T5">
+        <v>0.05665317509384109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.189622333333333</v>
+      </c>
+      <c r="H6">
+        <v>15.568867</v>
+      </c>
+      <c r="I6">
+        <v>0.05597462963202916</v>
+      </c>
+      <c r="J6">
+        <v>0.05597462963202914</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>1.917360666666666</v>
+      </c>
+      <c r="N6">
+        <v>5.752082</v>
+      </c>
+      <c r="O6">
+        <v>0.7195063496280685</v>
+      </c>
+      <c r="P6">
+        <v>0.7195063496280685</v>
+      </c>
+      <c r="Q6">
+        <v>9.950377736788221</v>
+      </c>
+      <c r="R6">
+        <v>89.553399631094</v>
+      </c>
+      <c r="S6">
+        <v>0.04027410143832441</v>
+      </c>
+      <c r="T6">
+        <v>0.0402741014383244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.189622333333333</v>
+      </c>
+      <c r="H7">
+        <v>15.568867</v>
+      </c>
+      <c r="I7">
+        <v>0.05597462963202916</v>
+      </c>
+      <c r="J7">
+        <v>0.05597462963202914</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3326733333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.99802</v>
+      </c>
+      <c r="O7">
+        <v>0.1248385761982887</v>
+      </c>
+      <c r="P7">
+        <v>0.1248385761982887</v>
+      </c>
+      <c r="Q7">
+        <v>1.726448960371111</v>
+      </c>
+      <c r="R7">
+        <v>15.53804064334</v>
+      </c>
+      <c r="S7">
+        <v>0.006987793066489061</v>
+      </c>
+      <c r="T7">
+        <v>0.00698779306648906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.189622333333333</v>
+      </c>
+      <c r="H8">
+        <v>15.568867</v>
+      </c>
+      <c r="I8">
+        <v>0.05597462963202916</v>
+      </c>
+      <c r="J8">
+        <v>0.05597462963202914</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.09660600000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.289818</v>
+      </c>
+      <c r="O8">
+        <v>0.0362522459235643</v>
+      </c>
+      <c r="P8">
+        <v>0.0362522459235643</v>
+      </c>
+      <c r="Q8">
+        <v>0.5013486551340001</v>
+      </c>
+      <c r="R8">
+        <v>4.512137896206</v>
+      </c>
+      <c r="S8">
+        <v>0.002029206038900751</v>
+      </c>
+      <c r="T8">
+        <v>0.00202920603890075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.189622333333333</v>
+      </c>
+      <c r="H9">
+        <v>15.568867</v>
+      </c>
+      <c r="I9">
+        <v>0.05597462963202916</v>
+      </c>
+      <c r="J9">
+        <v>0.05597462963202914</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.318188</v>
+      </c>
+      <c r="N9">
+        <v>0.954564</v>
+      </c>
+      <c r="O9">
+        <v>0.1194028282500784</v>
+      </c>
+      <c r="P9">
+        <v>0.1194028282500784</v>
+      </c>
+      <c r="Q9">
+        <v>1.651275550998667</v>
+      </c>
+      <c r="R9">
+        <v>14.861479958988</v>
+      </c>
+      <c r="S9">
+        <v>0.006683529088314927</v>
+      </c>
+      <c r="T9">
+        <v>0.006683529088314926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01652833333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.049585</v>
+      </c>
+      <c r="I10">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="J10">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.917360666666666</v>
+      </c>
+      <c r="N10">
+        <v>5.752082</v>
+      </c>
+      <c r="O10">
+        <v>0.7195063496280685</v>
+      </c>
+      <c r="P10">
+        <v>0.7195063496280685</v>
+      </c>
+      <c r="Q10">
+        <v>0.03169077621888888</v>
+      </c>
+      <c r="R10">
+        <v>0.2852169859699999</v>
+      </c>
+      <c r="S10">
+        <v>0.0001282682496946833</v>
+      </c>
+      <c r="T10">
+        <v>0.0001282682496946833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>40.1125532786755</v>
-      </c>
-      <c r="H5">
-        <v>40.1125532786755</v>
-      </c>
-      <c r="I5">
-        <v>0.8877057314491419</v>
-      </c>
-      <c r="J5">
-        <v>0.8877057314491419</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.308801267822689</v>
-      </c>
-      <c r="N5">
-        <v>0.308801267822689</v>
-      </c>
-      <c r="O5">
-        <v>0.4874831511053597</v>
-      </c>
-      <c r="P5">
-        <v>0.4874831511053597</v>
-      </c>
-      <c r="Q5">
-        <v>12.38680730806015</v>
-      </c>
-      <c r="R5">
-        <v>12.38680730806015</v>
-      </c>
-      <c r="S5">
-        <v>0.4327415872211159</v>
-      </c>
-      <c r="T5">
-        <v>0.4327415872211159</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01652833333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.049585</v>
+      </c>
+      <c r="I11">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="J11">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3326733333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.99802</v>
+      </c>
+      <c r="O11">
+        <v>0.1248385761982887</v>
+      </c>
+      <c r="P11">
+        <v>0.1248385761982887</v>
+      </c>
+      <c r="Q11">
+        <v>0.005498535744444444</v>
+      </c>
+      <c r="R11">
+        <v>0.0494868217</v>
+      </c>
+      <c r="S11">
+        <v>2.225529444126281E-05</v>
+      </c>
+      <c r="T11">
+        <v>2.225529444126282E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01652833333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.049585</v>
+      </c>
+      <c r="I12">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="J12">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.09660600000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.289818</v>
+      </c>
+      <c r="O12">
+        <v>0.0362522459235643</v>
+      </c>
+      <c r="P12">
+        <v>0.0362522459235643</v>
+      </c>
+      <c r="Q12">
+        <v>0.00159673617</v>
+      </c>
+      <c r="R12">
+        <v>0.01437062553</v>
+      </c>
+      <c r="S12">
+        <v>6.462781231215714E-06</v>
+      </c>
+      <c r="T12">
+        <v>6.462781231215714E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01652833333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.049585</v>
+      </c>
+      <c r="I13">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="J13">
+        <v>0.000178272575024513</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.318188</v>
+      </c>
+      <c r="N13">
+        <v>0.954564</v>
+      </c>
+      <c r="O13">
+        <v>0.1194028282500784</v>
+      </c>
+      <c r="P13">
+        <v>0.1194028282500784</v>
+      </c>
+      <c r="Q13">
+        <v>0.005259117326666666</v>
+      </c>
+      <c r="R13">
+        <v>0.04733205593999999</v>
+      </c>
+      <c r="S13">
+        <v>2.128624965735115E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.128624965735115E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>43.51765933333333</v>
+      </c>
+      <c r="H14">
+        <v>130.552978</v>
+      </c>
+      <c r="I14">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="J14">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.917360666666666</v>
+      </c>
+      <c r="N14">
+        <v>5.752082</v>
+      </c>
+      <c r="O14">
+        <v>0.7195063496280685</v>
+      </c>
+      <c r="P14">
+        <v>0.7195063496280685</v>
+      </c>
+      <c r="Q14">
+        <v>83.43904831113288</v>
+      </c>
+      <c r="R14">
+        <v>750.9514348001959</v>
+      </c>
+      <c r="S14">
+        <v>0.3377191082078956</v>
+      </c>
+      <c r="T14">
+        <v>0.3377191082078956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>43.51765933333333</v>
+      </c>
+      <c r="H15">
+        <v>130.552978</v>
+      </c>
+      <c r="I15">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="J15">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3326733333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.99802</v>
+      </c>
+      <c r="O15">
+        <v>0.1248385761982887</v>
+      </c>
+      <c r="P15">
+        <v>0.1248385761982887</v>
+      </c>
+      <c r="Q15">
+        <v>14.47716478928444</v>
+      </c>
+      <c r="R15">
+        <v>130.29448310356</v>
+      </c>
+      <c r="S15">
+        <v>0.05859624817129589</v>
+      </c>
+      <c r="T15">
+        <v>0.05859624817129589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>43.51765933333333</v>
+      </c>
+      <c r="H16">
+        <v>130.552978</v>
+      </c>
+      <c r="I16">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="J16">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.09660600000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.289818</v>
+      </c>
+      <c r="O16">
+        <v>0.0362522459235643</v>
+      </c>
+      <c r="P16">
+        <v>0.0362522459235643</v>
+      </c>
+      <c r="Q16">
+        <v>4.204066997556001</v>
+      </c>
+      <c r="R16">
+        <v>37.836602978004</v>
+      </c>
+      <c r="S16">
+        <v>0.01701593901175191</v>
+      </c>
+      <c r="T16">
+        <v>0.0170159390117519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>43.51765933333333</v>
+      </c>
+      <c r="H17">
+        <v>130.552978</v>
+      </c>
+      <c r="I17">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="J17">
+        <v>0.4693761332092085</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.318188</v>
+      </c>
+      <c r="N17">
+        <v>0.954564</v>
+      </c>
+      <c r="O17">
+        <v>0.1194028282500784</v>
+      </c>
+      <c r="P17">
+        <v>0.1194028282500784</v>
+      </c>
+      <c r="Q17">
+        <v>13.84679698795467</v>
+      </c>
+      <c r="R17">
+        <v>124.621172891592</v>
+      </c>
+      <c r="S17">
+        <v>0.05604483781826505</v>
+      </c>
+      <c r="T17">
+        <v>0.05604483781826505</v>
       </c>
     </row>
   </sheetData>
